--- a/loaded_influencer_data/airis2rtle/airis2rtle_video.xlsx
+++ b/loaded_influencer_data/airis2rtle/airis2rtle_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,13 +506,13 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@airis2rtle/video/7414231566391594260</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>34100</v>
+        <v>34200</v>
       </c>
       <c r="C2" t="n">
         <v>282</v>
@@ -528,24 +528,23 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>achieve mermaid curls in less than 5 mins 🧜🏻‍♀️
-#Hodekt #hodektglobalph #hodektkitchen #HODEKT</t>
+          <t>5분 이내에 인어 컬 달성 🧜🏻‍♀️ #Hodekt #hodektglobalph #hodektkitchen #HODEKT</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1.090909090909091</v>
+        <v>1.087719298245614</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8269794721407625</v>
+        <v>0.8245614035087719</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2639296187683284</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2140762463343109</v>
+        <v>0.2134502923976608</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -559,13 +558,13 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@airis2rtle/video/7391807392746441992</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54500</v>
+        <v>55000</v>
       </c>
       <c r="C3" t="n">
         <v>1172</v>
@@ -581,24 +580,23 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>new makeup essential? tried Ellana Minerals Stay Matte Poreless Oil Control Powder ✨
-#ellanaminerals</t>
+          <t>5분 이내에 인어 컬 달성 🧜🏻‍♀️ #Hodekt #hodektglobalph #hodektkitchen #HODEKT</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2.299082568807339</v>
+        <v>2.278181818181818</v>
       </c>
       <c r="I3" t="n">
-        <v>2.15045871559633</v>
+        <v>2.130909090909091</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1486238532110092</v>
+        <v>0.1472727272727273</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2917431192660551</v>
+        <v>0.2890909090909091</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -612,7 +610,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@airis2rtle/video/7405789565178465544</t>
         </is>
@@ -634,9 +632,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>can't get enough of this lip gloss 💋🫦
-#JMCYph #JMCYMirrorlockgloss
-#Colorlockglaze #jmcyph</t>
+          <t>can't get enough of this lip gloss 💋🫦 #JMCYph #JMCYMirrorlockgloss #Colorlockglaze #jmcyph #jmcyglossyliptint #realtransferproofgloss</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -666,181 +662,378 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@airis2rtle/video/7489443381077101842</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>385</v>
+      </c>
+      <c r="C5" t="n">
+        <v>48</v>
+      </c>
+      <c r="D5" t="n">
+        <v>22</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>14</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>브랜드 하나, 세럼 4개, 그만한 가치가 있나요, 없습니까?🤩 ONE THING에서 네 개의 세럼을 시험해 보았고, 제 의견은 다음과 같습니다. 💜펩타이드 망막 세럼은 잔주름, 모공 평활에 도움을 주며 피부를 조금 더 단단하게 만들어줍니다. 피부를 더 단단하고 매끄럽게 만들어주는 느낌이 너무 좋아요. 저는 밤에 사용하는 것을 좋아합니다. 💛 Niacinamide Glutathione Serum은 피부를 밝게 하고 고르지 않은 톤을 도와줍니다. 🩵 히알루론적 스칼레인 세럼 끈적끈적한 느낌 없이 수분을 공급합니다. 피부는 하루 종일 부드러워집니다. 💚 CICA B5 진정 세럼 내 피부가 변할 때 좋습니다. 홍조를 진정시키고 무겁게 느껴지지 않습니다. 어느 것을 고르시겠습니까? ✨</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>18.18181818181818</v>
+      </c>
+      <c r="I5" t="n">
+        <v>12.46753246753247</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5.714285714285714</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.636363636363636</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@airis2rtle/video/7489129836384898311</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>671</v>
+      </c>
+      <c r="C6" t="n">
+        <v>63</v>
+      </c>
+      <c r="D6" t="n">
+        <v>21</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>21</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Woke up feeling oily—time to fix that! ✨ Tried the Coxir TXA Pore Mask Cleanser, and honestly… mixed feelings. As someone with oily skin and open pores, I love how it deep cleans and makes my skin feel fresh after. The combo of snail mucin, charcoal, TXA, and Korean black rice really does the job! But ngl, I’m not a fan of the whole process, it’s a bit messy, so I’d rather use it in the shower. Worth it for the results, though! ✨ Fresh, clean skin unlocked! Who else needs this? 👇 #PoreCare #OilySkinMustHave #KBeauty#TranexamicAcid #Niacinamide #poremask #coxirtxamucinpore</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>12.51862891207154</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9.388971684053651</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.129657228017884</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.129657228017884</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@airis2rtle/video/7488580025751457042</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>377</v>
+      </c>
+      <c r="C7" t="n">
+        <v>63</v>
+      </c>
+      <c r="D7" t="n">
+        <v>21</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>21</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>기름진 기분으로 일어났어 - 고칠 시간이야!✨ Coxir TXA 모공 마스크 클렌저를 사용해 보았고 솔직히... 착잡한 감정. 지성 피부와 열린 모공을 가진 사람으로서, 나는 그것이 내 피부를 깊게 청소하고 상쾌하게 만드는 것을 좋아합니다. 달팽이 뮤신, 숯, TXA, 그리고 한국 흑미의 콤보가 정말 그 역할을 합니다! 하지만 ngl, 저는 모든 과정의 팬이 아닙니다. 약간 지저분해서 샤워할 때 사용하는 것이 좋습니다. 그래도 결과는 그만한 가치가 ✨ 신선하고 깨끗한 피부 잠금 해제! 또 누가 이것을 필요로 합니까? 👇</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>22.28116710875332</v>
+      </c>
+      <c r="I7" t="n">
+        <v>16.71087533156498</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5.570291777188329</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5.570291777188329</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@airis2rtle/video/7487743448028613906</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>280</v>
+      </c>
+      <c r="C8" t="n">
+        <v>63</v>
+      </c>
+      <c r="D8" t="n">
+        <v>21</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>15</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>GRWM + 향수 리뷰! 이것은 과대 광고할 가치가 있습니까? 👀✨ #XTREMESCENTS #XTREMEPERFUMES #perfume</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>30</v>
+      </c>
+      <c r="I8" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5.357142857142857</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@airis2rtle/video/7485529801508293895</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>511</v>
-      </c>
-      <c r="C5" t="n">
-        <v>72</v>
-      </c>
-      <c r="D5" t="n">
-        <v>39</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>27</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>First time trying snail mucin, and this Jumiso Snail Mucin 95 + Peptide Essence did not disappoint!
-I got this from StyleKorean, and I’m already on my 2nd bottle—so far, my oily skin feels calmer, more hydrated, and smoother.</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>21.72211350293542</v>
-      </c>
-      <c r="I5" t="n">
-        <v>14.09001956947162</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>7.632093933463796</v>
-      </c>
-      <c r="L5" t="n">
-        <v>5.283757338551859</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="B9" t="n">
+        <v>929</v>
+      </c>
+      <c r="C9" t="n">
+        <v>41</v>
+      </c>
+      <c r="D9" t="n">
+        <v>12</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>10</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>GRWM + 내가 좋아하는 일상적인 향수로 룩을 완성합니다!#GRWM #XTREMESCENTS #XTREMEPERFUMES</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5.705059203444564</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.413347685683531</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.291711517761033</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.076426264800861</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@airis2rtle/video/7485416575235902728</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>416</v>
+      </c>
+      <c r="C10" t="n">
+        <v>89</v>
+      </c>
+      <c r="D10" t="n">
+        <v>55</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>30</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>달팽이 뮤신을 처음 먹어봤는데, 이 주미소 달팽이 뮤신 95+ 펩타이드 에센스는 실망시키지 않았습니다! 나는 이것을 스타일 코리안에서 얻었고, 나는 이미 두 번째 병에 담겨 있습니다. 지금까지 내 지성 피부는 더 차분하고, 더 촉촉하고, 더 매끄럽게 느껴집니다. 그것은 내가 사용하고 있는 거의 다른 브랜드에서 제공하지만 더 저렴한 가격에 제공합니다. 또한 7개의 펩타이드로 피부 탄력과 전반적인 회복에 도움이 됩니다. 가볍고 끈적이지 않은 달팽이 점액 에센스를 원한다면 확인해 볼 가치가 있습니다! ✨전에 달팽이 점액을 먹어본 적이 있나요? 댓글로 당신의 경험을 알려주세요! 👇🏻</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>34.61538461538461</v>
+      </c>
+      <c r="I10" t="n">
+        <v>21.39423076923077</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>13.22115384615385</v>
+      </c>
+      <c r="L10" t="n">
+        <v>7.211538461538461</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>2025-03-25</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@airis2rtle/video/7485416575235902728</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>368</v>
-      </c>
-      <c r="C6" t="n">
-        <v>55</v>
-      </c>
-      <c r="D6" t="n">
-        <v>28</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>20</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Comfy, pretty, and easy to wear lenses. 👁️👄👁️
-Loving these ICOICE lenses! ✨
-Use Airis20 to save on your order! 💖</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>22.55434782608696</v>
-      </c>
-      <c r="I6" t="n">
-        <v>14.94565217391304</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>7.608695652173914</v>
-      </c>
-      <c r="L6" t="n">
-        <v>5.434782608695652</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>2025-03-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@airis2rtle/photo/7484500829878111496</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B11" t="n">
         <v>551</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C11" t="n">
         <v>84</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D11" t="n">
         <v>51</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>30</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Sweet, light, and doesn’t cost much—just an easy, everyday scent 💋
 #xtremescents #xtremeperfumes #perfume</t>
         </is>
       </c>
-      <c r="H7" t="n">
+      <c r="H11" t="n">
         <v>24.50090744101633</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I11" t="n">
         <v>15.24500907441016</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>9.25589836660617</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L11" t="n">
         <v>5.44464609800363</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-03-23</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@airis2rtle/video/7483690829828164882</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B12" t="n">
         <v>329</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C12" t="n">
         <v>64</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D12" t="n">
         <v>40</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>24</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Finally did the Skin Test Challenge…
 now I know my real skin type! 🤯
@@ -848,1477 +1041,1477 @@
 Let me know what yours is! 🤍</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="H12" t="n">
         <v>31.61094224924012</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I12" t="n">
         <v>19.45288753799392</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>12.1580547112462</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L12" t="n">
         <v>7.29483282674772</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@airis2rtle/video/7483149091975843079</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B13" t="n">
         <v>470</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C13" t="n">
         <v>69</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D13" t="n">
         <v>40</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>22</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Double cleanse = double the glow ✨
 The Seoul 1988 Cleansing Oil melts off makeup, sebacious filaments and dirt easily. No greasy feel, no stripping. Just gentle Cleansing</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="H13" t="n">
         <v>23.19148936170213</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I13" t="n">
         <v>14.68085106382979</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>8.51063829787234</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L13" t="n">
         <v>4.680851063829787</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@airis2rtle/photo/7482429971084938514</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B14" t="n">
         <v>307</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C14" t="n">
         <v>42</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D14" t="n">
         <v>11</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>8</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Empress Shampoo stays in my pouch—fresh hair anywhere, anytime!
 #EmpressShampoo #StayFresh</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H14" t="n">
         <v>17.26384364820847</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I14" t="n">
         <v>13.68078175895766</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>3.583061889250815</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L14" t="n">
         <v>2.605863192182411</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-03-17</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@airis2rtle/video/7481958424687758599</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B15" t="n">
         <v>304</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C15" t="n">
         <v>58</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D15" t="n">
         <v>25</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>16</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Here’s what’s in my pouch for my quick getaway! —skincare? check! body care? check! hair care? check! Can’t go without these!</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H15" t="n">
         <v>27.30263157894737</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I15" t="n">
         <v>19.07894736842105</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>8.223684210526317</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L15" t="n">
         <v>5.263157894736842</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-03-15</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@airis2rtle/video/7481099481933483271</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B16" t="n">
         <v>1615</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C16" t="n">
         <v>66</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D16" t="n">
         <v>38</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>23</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>If you're new to rejuvenating sets, y not try the Chel Premium Skincare Niacinamide Rejuvenating Set 💓
 no-fuss, gentle pick that keeps my skin clear and naturally bright.</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H16" t="n">
         <v>6.439628482972136</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I16" t="n">
         <v>4.086687306501548</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>2.352941176470588</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L16" t="n">
         <v>1.424148606811146</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-03-13</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@airis2rtle/video/7480542957251104007</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B17" t="n">
         <v>341</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C17" t="n">
         <v>56</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D17" t="n">
         <v>31</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>19</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>My top skincare for this month! ✨
 The Skin House Ultra Collagen Dewy &amp; Glow Ampoule Mist – My fave mist ever! I love spraying it over my makeup for that super dewy, glowy finish.</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H17" t="n">
         <v>25.51319648093842</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I17" t="n">
         <v>16.42228739002933</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>9.090909090909092</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L17" t="n">
         <v>5.571847507331378</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-03-11</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@airis2rtle/video/7479519424001723666</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B18" t="n">
         <v>521</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C18" t="n">
         <v>77</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D18" t="n">
         <v>44</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>18</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Good hair starts with the right routine! #haircare #hairtok #empressshampoo #recommendation #fyp #foryou</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H18" t="n">
         <v>23.22456813819578</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I18" t="n">
         <v>14.77927063339731</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>8.445297504798464</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L18" t="n">
         <v>3.45489443378119</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-03-09</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@airis2rtle/video/7478006679079062802</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B19" t="n">
         <v>455</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C19" t="n">
         <v>88</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D19" t="n">
         <v>39</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>24</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>soft glam look ✨
 Want an easy soft glam look? The Unleashia Tap Me Duo Palette has the perfect mix of matte and shimmer shades for a natural glow.</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H19" t="n">
         <v>27.91208791208791</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I19" t="n">
         <v>19.34065934065934</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>8.571428571428571</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L19" t="n">
         <v>5.274725274725275</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-03-05</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@airis2rtle/video/7477617735212567816</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B20" t="n">
         <v>437</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C20" t="n">
         <v>79</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D20" t="n">
         <v>37</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>18</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>my besties' been using this so I tried it too! 😬
 This is a solid go-to for quick hydration. It’s lightweight, refreshing, and gives my skin a nice, healthy glow without feeling greasy.</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H20" t="n">
         <v>26.54462242562929</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I20" t="n">
         <v>18.07780320366133</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>8.466819221967963</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L20" t="n">
         <v>4.118993135011442</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-03-04</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@airis2rtle/video/7476224146901503239</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B21" t="n">
         <v>426</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C21" t="n">
         <v>60</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D21" t="n">
         <v>32</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>20</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Difference in just 7 days 😭
 Been using the Coxir's TXA Niacinamide Toning Ampoule for a few weeks, and I've noticed subtle improvements in my skin tone.</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H21" t="n">
         <v>21.5962441314554</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I21" t="n">
         <v>14.08450704225352</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>7.511737089201878</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L21" t="n">
         <v>4.694835680751173</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-02-28</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@airis2rtle/video/7475215677926755591</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B22" t="n">
         <v>520</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C22" t="n">
         <v>59</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D22" t="n">
         <v>42</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>16</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>consistency is the key ✨🫧
 #skincare #skintok #kbeauty #koreanskincare #skincareroutine #7days</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H22" t="n">
         <v>19.42307692307692</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I22" t="n">
         <v>11.34615384615385</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>8.076923076923077</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L22" t="n">
         <v>3.076923076923077</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-02-25</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@airis2rtle/video/7474000216601939208</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B23" t="n">
         <v>1120</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C23" t="n">
         <v>135</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D23" t="n">
         <v>61</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>35</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>✨ non cakey makeup skin prep ✨
 Lately, I’ve been using the Benton Guava 70 Skin Toner Face Mask Pad and Guava Moisture Soothing Cream as part of my pre-makeup routine!</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H23" t="n">
         <v>17.5</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I23" t="n">
         <v>12.05357142857143</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>5.446428571428571</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L23" t="n">
         <v>3.125</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-02-22</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@airis2rtle/video/7472807539755846919</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B24" t="n">
         <v>544</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C24" t="n">
         <v>83</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D24" t="n">
         <v>54</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>25</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>I've been using Kaine's Vegan Collagen Youth Cream for a while now, and I gotta say, it’s been great! It’s super lightweight but packs a serious hydration punch, my skin feels smoother and way more plump without any greasy residue. I love that it’s vegan too, so it feels good to use something that’s both effective and ethical.</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H24" t="n">
         <v>25.18382352941176</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I24" t="n">
         <v>15.25735294117647</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>9.926470588235293</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L24" t="n">
         <v>4.595588235294118</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-02-19</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@airis2rtle/video/7472408778919513362</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B25" t="n">
         <v>786</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C25" t="n">
         <v>84</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D25" t="n">
         <v>33</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>22</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>I got these as Valentine’s gift 🤍
 I’ve been using the Coxir Ultra Hyaluronic Cleansing Oil forever—it’s packed with hyaluronic acid, aloe vera, and a plant complex that really hydrates and melts away makeup. Fair warning: it’s got a noticeable scent, but it still does its job.</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H25" t="n">
         <v>14.88549618320611</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I25" t="n">
         <v>10.68702290076336</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>4.198473282442748</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L25" t="n">
         <v>2.798982188295165</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-02-18</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@airis2rtle/video/7469444674613267719</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B26" t="n">
         <v>919</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C26" t="n">
         <v>90</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D26" t="n">
         <v>50</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>23</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>I AM FINALLY BACK!!
 Dealing with acne this season but still chasing that Valentine’s glow, so I had to give these products a shot!</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H26" t="n">
         <v>15.23394994559304</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I26" t="n">
         <v>9.793253536452665</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>5.44069640914037</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L26" t="n">
         <v>2.50272034820457</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-02-10</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@airis2rtle/video/7464241532216954119</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B27" t="n">
         <v>706</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C27" t="n">
         <v>94</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D27" t="n">
         <v>47</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>23</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>I’ve been on a bit of a break for the past couple of weeks—life’s been hectic, and I’ve been dealing with some breakouts, so I decided to slow down and take some time to rest. But I’m excited to get back to it and share more reviews with you all starting in February!</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H27" t="n">
         <v>19.97167138810198</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I27" t="n">
         <v>13.31444759206799</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>6.657223796033994</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L27" t="n">
         <v>3.257790368271955</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-01-27</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@airis2rtle/video/7461931000247979272</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B28" t="n">
         <v>1144</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C28" t="n">
         <v>80</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D28" t="n">
         <v>36</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>23</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Kaine’s Caffetinal Cream is everything my skin didn’t know it needed!
 I’ve been on the hunt for something that hydrates deeply without making my oily skin feel heavy, and this cream nailed it. The combo of caffeine and retinal is brilliant; it leaves my skin looking firmer, brighter, and more even without any irritation. It’s hydrating but gentle, and my skin feels smoother every time I use it. If you want a cream that does it all, this is it!</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H28" t="n">
         <v>10.13986013986014</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I28" t="n">
         <v>6.993006993006993</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>3.146853146853147</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L28" t="n">
         <v>2.01048951048951</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-01-20</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@airis2rtle/video/7459317486178159880</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B29" t="n">
         <v>980</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C29" t="n">
         <v>80</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D29" t="n">
         <v>33</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>14</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>The Perfect Mask for Oily Skin! ✨
 If you’ve got oily skin like me, the Nacific Green Tea Cica Collagen Gel Mask is definitely worth a try. I’ve tried so many masks that either leave me feeling greasy or don’t do much, but this one? It’s on another level.The moment I put it on, it felt so refreshing. The green tea and cica really help calm any redness and keep my skin feeling balanced, not oily. Plus, the collagen adds this nice plumpness to my skin without making it heavy or sticky.</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H29" t="n">
         <v>11.53061224489796</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I29" t="n">
         <v>8.163265306122449</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>3.36734693877551</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L29" t="n">
         <v>1.428571428571429</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-01-13</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@airis2rtle/video/7458115600653552904</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B30" t="n">
         <v>474</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C30" t="n">
         <v>68</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D30" t="n">
         <v>22</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>14</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>[RE UPLOAD]
 Feel fresh, smooth, and confident with Sweet Candy Cream!
 I’ve been using Sweet Candy Cream, and honestly, I love it. It’s so easy to use—just cleanse, dry, and apply—and the light floral scent is such a nice touch. My skin feels softer, smoother, and more hydrated, plus it helps with irritation and keeps me feeling fresh all day. It’s a small step that makes a big difference—I’d totally recommend it!</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H30" t="n">
         <v>18.9873417721519</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I30" t="n">
         <v>14.34599156118143</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>4.641350210970464</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L30" t="n">
         <v>2.953586497890295</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-01-10</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@airis2rtle/video/7457521096384974098</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B31" t="n">
         <v>818</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C31" t="n">
         <v>47</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D31" t="n">
         <v>29</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>20</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>trying their newest hair dryer ✨
 #hodekt #hodektglobalph #hodektkitchen #HODEKT</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H31" t="n">
         <v>9.290953545232274</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I31" t="n">
         <v>5.745721271393643</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>3.54523227383863</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L31" t="n">
         <v>2.444987775061125</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2025-01-08</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@airis2rtle/video/7454560674287635720</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B32" t="n">
         <v>525</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C32" t="n">
         <v>66</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D32" t="n">
         <v>23</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>17</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>Looking for serums that actually work without irritating your skin? Slowpure might just be your new skincare obsession.</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H32" t="n">
         <v>16.95238095238095</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I32" t="n">
         <v>12.57142857142857</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>4.380952380952381</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L32" t="n">
         <v>3.238095238095238</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2024-12-31</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@airis2rtle/video/7452220986818186503</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B33" t="n">
         <v>1329</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C33" t="n">
         <v>82</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D33" t="n">
         <v>37</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>18</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>If you’re looking reset damaged skin barrier and have oily skin like I do.. 🤷🏻‍♀️
 The P.Calm Retinolagen Ampoule is such a good pick! 🤎</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H33" t="n">
         <v>8.954100827689992</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I33" t="n">
         <v>6.170052671181339</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>2.784048156508653</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L33" t="n">
         <v>1.354401805869075</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2024-12-25</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@airis2rtle/video/7451229081502289160</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B34" t="n">
         <v>897</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C34" t="n">
         <v>82</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D34" t="n">
         <v>13</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>31</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>✨TONER MADE EASY✨😻
 The Alivelab Cotton Candy Ball is a great find for oily skin like mine! It tones and gently exfoliates in one easy step, perfect for days when I don’t feel like doing a full routine. The ingredients are solid, Niacinamide, Centella Asiatica, and gentle BHAs/PHAs work to soothe, brighten, and smooth skin without irritation.</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H34" t="n">
         <v>10.59085841694537</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I34" t="n">
         <v>9.141583054626533</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>1.449275362318841</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L34" t="n">
         <v>3.455964325529543</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2024-12-22</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@airis2rtle/video/7448904248907009298</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B35" t="n">
         <v>1357</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C35" t="n">
         <v>68</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D35" t="n">
         <v>3</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>19</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Struggling with acne, redness, or oily skin? 😱😨
 Same here, but TOCOBO’s Cica Calming line has been a total lifesaver for me! Here’s the quick rundown:</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H35" t="n">
         <v>5.232129697862932</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I35" t="n">
         <v>5.011053795136331</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>0.2210759027266028</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L35" t="n">
         <v>1.400147383935151</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2024-12-16</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@airis2rtle/video/7448603097515035912</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B36" t="n">
         <v>3838</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C36" t="n">
         <v>78</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D36" t="n">
         <v>13</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>23</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>TOP 3 Fave Shades of Ever Bilena No Budge Lip Liner 💋
 Available in 6 shades. Smudge proof and morena friendly tones. 💓</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H36" t="n">
         <v>2.371026576341845</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I36" t="n">
         <v>2.032308494007296</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>0.3387180823345493</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L36" t="n">
         <v>0.5992704533611256</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2024-12-15</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@airis2rtle/video/7447100723000757512</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B37" t="n">
         <v>781</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C37" t="n">
         <v>67</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D37" t="n">
         <v>5</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>18</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>Who knew that a clay wash could do it all? 😱🤯
 I am using Fully's Green Tomato Clay Mask Cleanser for a few months and just started on my second tube. The versatility is such a MAJOR MAJOR plus: apply a quick cleanse or leave it on as a mask to exfoliate.</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H37" t="n">
         <v>9.218950064020486</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I37" t="n">
         <v>8.578745198463508</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>0.6402048655569782</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L37" t="n">
         <v>2.304737516005122</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2024-12-11</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@airis2rtle/video/7444484286536748306</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B38" t="n">
         <v>1030</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C38" t="n">
         <v>82</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D38" t="n">
         <v>91</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>24</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>🌸 GIVEAWAY TIME! 🌸
 Hey, everyone! I have some amazing news to share!
 I was chosen as one of</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H38" t="n">
         <v>16.79611650485437</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I38" t="n">
         <v>7.961165048543689</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>8.83495145631068</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L38" t="n">
         <v>2.330097087378641</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2024-12-4</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@airis2rtle/video/7443439037756558599</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B39" t="n">
         <v>597</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C39" t="n">
         <v>79</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D39" t="n">
         <v>62</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>29</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>Reapplying SPF has never been easier! ⛅️
 This is one of the the best sunscreen for oily skin IMO - lightweight, non-greasy sunscreen from Haruharu Wonder. This glides on smoothly and gives a soft, semi-matte finish without blocking any pores.</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H39" t="n">
         <v>23.61809045226131</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I39" t="n">
         <v>13.23283082077052</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>10.38525963149079</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L39" t="n">
         <v>4.857621440536013</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2024-12-1</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@airis2rtle/video/7443328604588494088</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B40" t="n">
         <v>1988</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C40" t="n">
         <v>88</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D40" t="n">
         <v>12</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>28</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>picnic/date night outfit ideas ✨
 #krisanncloseth #krisanndresses #trendingdress #tiktokfinds</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H40" t="n">
         <v>5.030181086519115</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I40" t="n">
         <v>4.426559356136821</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>0.6036217303822937</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L40" t="n">
         <v>1.408450704225352</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2024-12-1</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@airis2rtle/photo/7442958106801360146</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B41" t="n">
         <v>1823</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C41" t="n">
         <v>111</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D41" t="n">
         <v>6</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>26</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>Dolled up for the upcoming holiday. ✨
 @Biolux Perfume
@@ -2326,52 +2519,52 @@
 #krisanncloseth</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H41" t="n">
         <v>6.417992320351069</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I41" t="n">
         <v>6.088864509051015</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>0.3291278113000549</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L41" t="n">
         <v>1.426220515633571</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2024-11-30</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@airis2rtle/video/7442639239042370823</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B42" t="n">
         <v>2086</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C42" t="n">
         <v>80</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D42" t="n">
         <v>6</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>32</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>Dolled up for the upcoming holiday. ✨
 @Biolux Perfume
@@ -2379,638 +2572,486 @@
 #krisanncloseth</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H42" t="n">
         <v>4.122722914669223</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I42" t="n">
         <v>3.835091083413231</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>0.2876318312559923</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L42" t="n">
         <v>1.534036433365292</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2024-11-29</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@airis2rtle/video/7442334060707433746</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B43" t="n">
         <v>1416</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C43" t="n">
         <v>67</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D43" t="n">
         <v>53</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>22</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>Soft &amp; Fresh skin with eggplant?🍆
 Finally got to try the Papa Recipe Eggplant Mud Cream Mask &amp; Eggplant Clearing Peeling Pad Toner, and it really did something on my oily skin!</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H43" t="n">
         <v>8.474576271186439</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I43" t="n">
         <v>4.731638418079096</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>3.742937853107345</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L43" t="n">
         <v>1.553672316384181</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2024-11-28</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@airis2rtle/video/7441932841023261960</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B44" t="n">
         <v>1223</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C44" t="n">
         <v>79</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D44" t="n">
         <v>61</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>26</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>Soft &amp; Fresh skin with eggplant?🍆
 Finally got to try the Papa Recipe Eggplant Mud Cream Mask &amp; Eggplant Clearing Peeling Pad Toner, and it really did something on my oily skin!</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H44" t="n">
         <v>11.44726083401472</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I44" t="n">
         <v>6.459525756336877</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>4.987735077677842</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L44" t="n">
         <v>2.125919869174162</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2024-11-27</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@airis2rtle/video/7441594103944563986</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B45" t="n">
         <v>926</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C45" t="n">
         <v>69</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D45" t="n">
         <v>2</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>16</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>Level up your eye looks with these tools 👀
 I’ve been trying different kinds of cosmetics to up my eye makeup, but right now I'm featuring makeup tools to make your eye looks more exciting.</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H45" t="n">
         <v>7.667386609071274</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I45" t="n">
         <v>7.451403887688985</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>0.2159827213822894</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L45" t="n">
         <v>1.727861771058316</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2024-11-26</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@airis2rtle/video/7441201958897061127</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B46" t="n">
         <v>799</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C46" t="n">
         <v>80</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D46" t="n">
         <v>49</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>21</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>Brightening and spot care 🤯
 I’ve been using the SOME BY MI Galactomyces Pure Vitamin C Glow Serum, and it’s been great for my oily skin! The lightweight texture absorbs quickly, leaving no greasiness.</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H46" t="n">
         <v>16.14518147684606</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I46" t="n">
         <v>10.01251564455569</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>6.132665832290362</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L46" t="n">
         <v>2.62828535669587</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2024-11-25</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@airis2rtle/video/7440813302311046407</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B47" t="n">
         <v>10900000</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C47" t="n">
         <v>137600</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D47" t="n">
         <v>472</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>5010</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>my shiny hair care routine ✨
 I'm now realizing that hair damage isn’t permanent with the right products and care.</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H47" t="n">
         <v>1.266715596330275</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I47" t="n">
         <v>1.262385321100918</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>0.004330275229357798</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L47" t="n">
         <v>0.04596330275229358</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2024-11-24</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@airis2rtle/video/7440398998428699922</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B48" t="n">
         <v>934</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C48" t="n">
         <v>82</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D48" t="n">
         <v>40</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>23</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>Black Friday Must Haves ✨😉
 #5thamb3rd #blackfridaydeals #skincare #musthaves #glassskin #kbeauty #antiaging</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="H48" t="n">
         <v>13.06209850107066</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I48" t="n">
         <v>8.779443254817988</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>4.282655246252676</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L48" t="n">
         <v>2.462526766595289</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2024-11-23</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@airis2rtle/video/7439738330595462418</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B49" t="n">
         <v>895</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C49" t="n">
         <v>78</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D49" t="n">
         <v>27</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>23</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>Tinted last serum that actually work 🖤
 I first tried Benton Cosmetics' Honest Black Eyelash Serum a few months ago, and I’ve been using it ever since. Over the last two weeks, I focused on testing it again and was reminded why I love it. It’s perfect for a “no makeup” makeup look, giving my lashes a natural boost. It’s also super easy to remove with just lukewarm water, no need for cleansing oil. I’ve noticed subtle growth and length in my lashes over time, and consistency seems to be key.</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="H49" t="n">
         <v>11.73184357541899</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I49" t="n">
         <v>8.715083798882683</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>3.016759776536313</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L49" t="n">
         <v>2.569832402234637</v>
       </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2024-11-21</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@airis2rtle/video/7439623300046802184</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B50" t="n">
         <v>746</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C50" t="n">
         <v>77</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D50" t="n">
         <v>46</v>
       </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>23</v>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>Hydration Boost ✨ ( Night Routine )
 Tried tons of hydration products, found new ones that you can use overnight if you'd like to wake up in the morning feeling fresh.</t>
         </is>
       </c>
-      <c r="H46" t="n">
+      <c r="H50" t="n">
         <v>16.48793565683646</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I50" t="n">
         <v>10.32171581769437</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>6.166219839142091</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L50" t="n">
         <v>3.083109919571045</v>
       </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2024-11-21</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@airis2rtle/video/7438893871074905351</t>
         </is>
       </c>
-      <c r="B47" t="n">
+      <c r="B51" t="n">
         <v>766</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C51" t="n">
         <v>82</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D51" t="n">
         <v>58</v>
       </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>25</v>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>Quick and Easy Korean Glossy Skin Routine ✨
 There, you stop rushing around and just focus on getting three products.</t>
         </is>
       </c>
-      <c r="H47" t="n">
+      <c r="H51" t="n">
         <v>18.27676240208877</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I51" t="n">
         <v>10.70496083550914</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>7.571801566579635</v>
       </c>
-      <c r="L47" t="n">
+      <c r="L51" t="n">
         <v>3.263707571801567</v>
       </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2024-11-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@airis2rtle/video/7438242021011164423</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>889</v>
-      </c>
-      <c r="C48" t="n">
-        <v>83</v>
-      </c>
-      <c r="D48" t="n">
-        <v>63</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>24</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>I was skeptical about lash serums, but this won me over! The ball applicator is a huge plus. It makes application super easy and precise. After using it consistently, my lashes look longer, fuller, and stronger, with less shedding. Plus, it’s gentle and non-stinging, even on the delicate lash roots.</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>16.42294713160855</v>
-      </c>
-      <c r="I48" t="n">
-        <v>9.336332958380202</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>7.086614173228346</v>
-      </c>
-      <c r="L48" t="n">
-        <v>2.699662542182227</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>2024-11-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@airis2rtle/video/7437416149559577863</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>612</v>
-      </c>
-      <c r="C49" t="n">
-        <v>73</v>
-      </c>
-      <c r="D49" t="n">
-        <v>46</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>17</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>As someone with oily skin, I’m so happy I found 107’s Moisture Balm Mild Sunstick! 😌
-It’s super lightweight, non-greasy, and provides solid sun protection with a natural, dewy look, no white cast in sight. If you’re looking for a sunstick that actually works for oily skin, this is it! 👍🏼</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>19.44444444444445</v>
-      </c>
-      <c r="I49" t="n">
-        <v>11.9281045751634</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>7.516339869281046</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.777777777777778</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>2024-11-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@airis2rtle/video/7436316514229243144</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>437</v>
-      </c>
-      <c r="C50" t="n">
-        <v>64</v>
-      </c>
-      <c r="D50" t="n">
-        <v>39</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>19</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>As someone with oily skin, I’m so happy I found 107’s Moisture Balm Mild Sunstick! 😌
-It’s super lightweight, non-greasy, and provides solid sun protection with a natural, dewy look, no white cast in sight. If you’re looking for a sunstick that actually works for oily skin, this is it! 👍🏼</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>23.56979405034325</v>
-      </c>
-      <c r="I50" t="n">
-        <v>14.64530892448513</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>8.924485125858125</v>
-      </c>
-      <c r="L50" t="n">
-        <v>4.347826086956522</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>2024-11-12</t>
         </is>
       </c>
     </row>
